--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/L1cam-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/L1cam-Egfr.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.471321666666667</v>
+        <v>8.906151666666668</v>
       </c>
       <c r="H2">
-        <v>13.413965</v>
+        <v>26.718455</v>
       </c>
       <c r="I2">
-        <v>0.08320494137658799</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="J2">
-        <v>0.08320494137658797</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N2">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O2">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P2">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q2">
-        <v>3.123817341270001</v>
+        <v>14.56464544091111</v>
       </c>
       <c r="R2">
-        <v>28.11435607143001</v>
+        <v>131.0818089682</v>
       </c>
       <c r="S2">
-        <v>0.0008350450188732051</v>
+        <v>0.003341245215430601</v>
       </c>
       <c r="T2">
-        <v>0.0008350450188732049</v>
+        <v>0.003341245215430601</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.471321666666667</v>
+        <v>8.906151666666668</v>
       </c>
       <c r="H3">
-        <v>13.413965</v>
+        <v>26.718455</v>
       </c>
       <c r="I3">
-        <v>0.08320494137658799</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="J3">
-        <v>0.08320494137658797</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N3">
         <v>137.749091</v>
       </c>
       <c r="O3">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P3">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q3">
-        <v>205.3068317173128</v>
+        <v>408.9380987971563</v>
       </c>
       <c r="R3">
-        <v>1847.761485455815</v>
+        <v>3680.442889174406</v>
       </c>
       <c r="S3">
-        <v>0.05488171312106283</v>
+        <v>0.09381364424946895</v>
       </c>
       <c r="T3">
-        <v>0.05488171312106282</v>
+        <v>0.09381364424946892</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.471321666666667</v>
+        <v>8.906151666666668</v>
       </c>
       <c r="H4">
-        <v>13.413965</v>
+        <v>26.718455</v>
       </c>
       <c r="I4">
-        <v>0.08320494137658799</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="J4">
-        <v>0.08320494137658797</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N4">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O4">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P4">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q4">
-        <v>1.042114546003889</v>
+        <v>7.480849747257222</v>
       </c>
       <c r="R4">
-        <v>9.379030914035001</v>
+        <v>67.327647725315</v>
       </c>
       <c r="S4">
-        <v>0.0002785734457771051</v>
+        <v>0.001716166282714177</v>
       </c>
       <c r="T4">
-        <v>0.000278573445777105</v>
+        <v>0.001716166282714177</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.471321666666667</v>
+        <v>8.906151666666668</v>
       </c>
       <c r="H5">
-        <v>13.413965</v>
+        <v>26.718455</v>
       </c>
       <c r="I5">
-        <v>0.08320494137658799</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="J5">
-        <v>0.08320494137658797</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N5">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O5">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P5">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q5">
-        <v>88.47237103447057</v>
+        <v>67.60686151749945</v>
       </c>
       <c r="R5">
-        <v>796.2513393102352</v>
+        <v>608.461753657495</v>
       </c>
       <c r="S5">
-        <v>0.0236500424542112</v>
+        <v>0.01550955040354854</v>
       </c>
       <c r="T5">
-        <v>0.0236500424542112</v>
+        <v>0.01550955040354853</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.471321666666667</v>
+        <v>8.906151666666668</v>
       </c>
       <c r="H6">
-        <v>13.413965</v>
+        <v>26.718455</v>
       </c>
       <c r="I6">
-        <v>0.08320494137658799</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="J6">
-        <v>0.08320494137658797</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N6">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O6">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P6">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q6">
-        <v>11.35678442319445</v>
+        <v>42.57547507797834</v>
       </c>
       <c r="R6">
-        <v>102.21105980875</v>
+        <v>383.1792757018051</v>
       </c>
       <c r="S6">
-        <v>0.00303584532223315</v>
+        <v>0.00976715176322761</v>
       </c>
       <c r="T6">
-        <v>0.00303584532223315</v>
+        <v>0.009767151763227606</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.471321666666667</v>
+        <v>8.906151666666668</v>
       </c>
       <c r="H7">
-        <v>13.413965</v>
+        <v>26.718455</v>
       </c>
       <c r="I7">
-        <v>0.08320494137658799</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="J7">
-        <v>0.08320494137658797</v>
+        <v>0.1245005002255258</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N7">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O7">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P7">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q7">
-        <v>1.95919007204</v>
+        <v>1.537620366795</v>
       </c>
       <c r="R7">
-        <v>17.63271064836</v>
+        <v>13.838583301155</v>
       </c>
       <c r="S7">
-        <v>0.000523722014430495</v>
+        <v>0.0003527423111359347</v>
       </c>
       <c r="T7">
-        <v>0.0005237220144304949</v>
+        <v>0.0003527423111359346</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.4515893333333334</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H8">
         <v>1.354768</v>
       </c>
       <c r="I8">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="J8">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N8">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O8">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P8">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q8">
-        <v>0.3154956623040001</v>
+        <v>0.7385051109688889</v>
       </c>
       <c r="R8">
-        <v>2.839460960736</v>
+        <v>6.64654599872</v>
       </c>
       <c r="S8">
-        <v>8.433690337859194E-05</v>
+        <v>0.0001694189315219942</v>
       </c>
       <c r="T8">
-        <v>8.433690337859194E-05</v>
+        <v>0.0001694189315219942</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.4515893333333334</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H9">
         <v>1.354768</v>
       </c>
       <c r="I9">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="J9">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,16 +995,16 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N9">
         <v>137.749091</v>
       </c>
       <c r="O9">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P9">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q9">
         <v>20.73534005732089</v>
@@ -1013,10 +1013,10 @@
         <v>186.618060515888</v>
       </c>
       <c r="S9">
-        <v>0.00554287928450656</v>
+        <v>0.004756851516772378</v>
       </c>
       <c r="T9">
-        <v>0.00554287928450656</v>
+        <v>0.004756851516772377</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4515893333333334</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H10">
         <v>1.354768</v>
       </c>
       <c r="I10">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="J10">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N10">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O10">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P10">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q10">
-        <v>0.1052502700924445</v>
+        <v>0.3793189333137778</v>
       </c>
       <c r="R10">
-        <v>0.9472524308320002</v>
+        <v>3.413870399823999</v>
       </c>
       <c r="S10">
-        <v>2.813503613499491E-05</v>
+        <v>8.701877269850074E-05</v>
       </c>
       <c r="T10">
-        <v>2.813503613499491E-05</v>
+        <v>8.701877269850072E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.4515893333333334</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H11">
         <v>1.354768</v>
       </c>
       <c r="I11">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="J11">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N11">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O11">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P11">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q11">
-        <v>8.93542939478578</v>
+        <v>3.428028026483556</v>
       </c>
       <c r="R11">
-        <v>80.41886455307203</v>
+        <v>30.852252238352</v>
       </c>
       <c r="S11">
-        <v>0.002388579418211305</v>
+        <v>0.0007864168261643362</v>
       </c>
       <c r="T11">
-        <v>0.002388579418211305</v>
+        <v>0.0007864168261643361</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4515893333333334</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H12">
         <v>1.354768</v>
       </c>
       <c r="I12">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="J12">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N12">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O12">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P12">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q12">
-        <v>1.146999274222222</v>
+        <v>2.158803389658667</v>
       </c>
       <c r="R12">
-        <v>10.322993468</v>
+        <v>19.429230506928</v>
       </c>
       <c r="S12">
-        <v>0.0003066107668769943</v>
+        <v>0.0004952466248502894</v>
       </c>
       <c r="T12">
-        <v>0.0003066107668769943</v>
+        <v>0.0004952466248502893</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4515893333333334</v>
+        <v>0.4515893333333333</v>
       </c>
       <c r="H13">
         <v>1.354768</v>
       </c>
       <c r="I13">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="J13">
-        <v>0.008403435674603098</v>
+        <v>0.006312838586270617</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N13">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O13">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P13">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q13">
-        <v>0.197871995008</v>
+        <v>0.07796554363200001</v>
       </c>
       <c r="R13">
-        <v>1.780847955072</v>
+        <v>0.701689892688</v>
       </c>
       <c r="S13">
-        <v>5.289426549465224E-05</v>
+        <v>1.788591426311918E-05</v>
       </c>
       <c r="T13">
-        <v>5.289426549465224E-05</v>
+        <v>1.788591426311917E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.212987666666667</v>
+        <v>7.781650666666667</v>
       </c>
       <c r="H14">
-        <v>18.638963</v>
+        <v>23.344952</v>
       </c>
       <c r="I14">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="J14">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N14">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O14">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P14">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q14">
-        <v>4.340604425514001</v>
+        <v>12.72569647889778</v>
       </c>
       <c r="R14">
-        <v>39.065439829626</v>
+        <v>114.53126831008</v>
       </c>
       <c r="S14">
-        <v>0.001160311154092915</v>
+        <v>0.00291937573390591</v>
       </c>
       <c r="T14">
-        <v>0.001160311154092915</v>
+        <v>0.00291937573390591</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.212987666666667</v>
+        <v>7.781650666666667</v>
       </c>
       <c r="H15">
-        <v>18.638963</v>
+        <v>23.344952</v>
       </c>
       <c r="I15">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="J15">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N15">
         <v>137.749091</v>
       </c>
       <c r="O15">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P15">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q15">
-        <v>285.2778011591814</v>
+        <v>357.3051019376259</v>
       </c>
       <c r="R15">
-        <v>2567.500210432633</v>
+        <v>3215.745917438632</v>
       </c>
       <c r="S15">
-        <v>0.0762591985471935</v>
+        <v>0.08196862513004319</v>
       </c>
       <c r="T15">
-        <v>0.0762591985471935</v>
+        <v>0.08196862513004317</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.212987666666667</v>
+        <v>7.781650666666667</v>
       </c>
       <c r="H16">
-        <v>18.638963</v>
+        <v>23.344952</v>
       </c>
       <c r="I16">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="J16">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N16">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O16">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P16">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q16">
-        <v>1.448038254515222</v>
+        <v>6.536309014459555</v>
       </c>
       <c r="R16">
-        <v>13.032344290637</v>
+        <v>58.82678113013599</v>
       </c>
       <c r="S16">
-        <v>0.0003870831740370551</v>
+        <v>0.001499481144923271</v>
       </c>
       <c r="T16">
-        <v>0.0003870831740370551</v>
+        <v>0.001499481144923271</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.212987666666667</v>
+        <v>7.781650666666667</v>
       </c>
       <c r="H17">
-        <v>18.638963</v>
+        <v>23.344952</v>
       </c>
       <c r="I17">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="J17">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N17">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O17">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P17">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q17">
-        <v>122.9340653739419</v>
+        <v>59.07074106630311</v>
       </c>
       <c r="R17">
-        <v>1106.406588365477</v>
+        <v>531.636669596728</v>
       </c>
       <c r="S17">
-        <v>0.03286218998278822</v>
+        <v>0.01355129664916707</v>
       </c>
       <c r="T17">
-        <v>0.03286218998278822</v>
+        <v>0.01355129664916707</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>6.212987666666667</v>
+        <v>7.781650666666667</v>
       </c>
       <c r="H18">
-        <v>18.638963</v>
+        <v>23.344952</v>
       </c>
       <c r="I18">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="J18">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N18">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O18">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P18">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q18">
-        <v>15.78047092436111</v>
+        <v>37.19984640102133</v>
       </c>
       <c r="R18">
-        <v>142.02423831925</v>
+        <v>334.798617609192</v>
       </c>
       <c r="S18">
-        <v>0.004218365608887958</v>
+        <v>0.008533939896197735</v>
       </c>
       <c r="T18">
-        <v>0.004218365608887958</v>
+        <v>0.008533939896197735</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>6.212987666666667</v>
+        <v>7.781650666666667</v>
       </c>
       <c r="H19">
-        <v>18.638963</v>
+        <v>23.344952</v>
       </c>
       <c r="I19">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="J19">
-        <v>0.1156148703038507</v>
+        <v>0.1087809232135948</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N19">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O19">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P19">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q19">
-        <v>2.722332379928</v>
+        <v>1.343478642648</v>
       </c>
       <c r="R19">
-        <v>24.500991419352</v>
+        <v>12.091307783832</v>
       </c>
       <c r="S19">
-        <v>0.0007277218368510326</v>
+        <v>0.000308204659357641</v>
       </c>
       <c r="T19">
-        <v>0.0007277218368510326</v>
+        <v>0.0003082046593576409</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.879176</v>
+        <v>3.892567333333333</v>
       </c>
       <c r="H20">
-        <v>11.637528</v>
+        <v>11.677702</v>
       </c>
       <c r="I20">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="J20">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N20">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O20">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P20">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q20">
-        <v>2.710124245584</v>
+        <v>6.365697013342222</v>
       </c>
       <c r="R20">
-        <v>24.391118210256</v>
+        <v>57.29127312008</v>
       </c>
       <c r="S20">
-        <v>0.0007244584124378921</v>
+        <v>0.001460341398285356</v>
       </c>
       <c r="T20">
-        <v>0.0007244584124378921</v>
+        <v>0.001460341398285356</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.879176</v>
+        <v>3.892567333333333</v>
       </c>
       <c r="H21">
-        <v>11.637528</v>
+        <v>11.677702</v>
       </c>
       <c r="I21">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="J21">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N21">
         <v>137.749091</v>
       </c>
       <c r="O21">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P21">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q21">
-        <v>178.1176559430053</v>
+        <v>178.7325372743203</v>
       </c>
       <c r="R21">
-        <v>1603.058903487048</v>
+        <v>1608.592835468882</v>
       </c>
       <c r="S21">
-        <v>0.04761362305137488</v>
+        <v>0.04100266205809101</v>
       </c>
       <c r="T21">
-        <v>0.04761362305137488</v>
+        <v>0.04100266205809099</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.879176</v>
+        <v>3.892567333333333</v>
       </c>
       <c r="H22">
-        <v>11.637528</v>
+        <v>11.677702</v>
       </c>
       <c r="I22">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="J22">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N22">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O22">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P22">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q22">
-        <v>0.9041053266746667</v>
+        <v>3.269617725098444</v>
       </c>
       <c r="R22">
-        <v>8.136947940072</v>
+        <v>29.426559525886</v>
       </c>
       <c r="S22">
-        <v>0.0002416814323943399</v>
+        <v>0.000750076246249415</v>
       </c>
       <c r="T22">
-        <v>0.0002416814323943399</v>
+        <v>0.0007500762462494148</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.879176</v>
+        <v>3.892567333333333</v>
       </c>
       <c r="H23">
-        <v>11.637528</v>
+        <v>11.677702</v>
       </c>
       <c r="I23">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="J23">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N23">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O23">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P23">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q23">
-        <v>76.75580599323466</v>
+        <v>29.54859410683089</v>
       </c>
       <c r="R23">
-        <v>690.802253939112</v>
+        <v>265.937346961478</v>
       </c>
       <c r="S23">
-        <v>0.02051802217033305</v>
+        <v>0.006778681917297221</v>
       </c>
       <c r="T23">
-        <v>0.02051802217033305</v>
+        <v>0.006778681917297219</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.879176</v>
+        <v>3.892567333333333</v>
       </c>
       <c r="H24">
-        <v>11.637528</v>
+        <v>11.677702</v>
       </c>
       <c r="I24">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="J24">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N24">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O24">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P24">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q24">
-        <v>9.852783775333332</v>
+        <v>18.60825075660467</v>
       </c>
       <c r="R24">
-        <v>88.67505397799999</v>
+        <v>167.474256809442</v>
       </c>
       <c r="S24">
-        <v>0.002633802529017878</v>
+        <v>0.004268880355535025</v>
       </c>
       <c r="T24">
-        <v>0.002633802529017878</v>
+        <v>0.004268880355535024</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.879176</v>
+        <v>3.892567333333333</v>
       </c>
       <c r="H25">
-        <v>11.637528</v>
+        <v>11.677702</v>
       </c>
       <c r="I25">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="J25">
-        <v>0.072185952103528</v>
+        <v>0.05441481329981927</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N25">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O25">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P25">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q25">
-        <v>1.699730789568</v>
+        <v>0.672040072398</v>
       </c>
       <c r="R25">
-        <v>15.297577106112</v>
+        <v>6.048360651582</v>
       </c>
       <c r="S25">
-        <v>0.0004543645079699618</v>
+        <v>0.0001541713243612599</v>
       </c>
       <c r="T25">
-        <v>0.0004543645079699618</v>
+        <v>0.0001541713243612599</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>32.24961033333334</v>
+        <v>43.49559133333333</v>
       </c>
       <c r="H26">
-        <v>96.74883100000001</v>
+        <v>130.486774</v>
       </c>
       <c r="I26">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="J26">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N26">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O26">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P26">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q26">
-        <v>22.530674265618</v>
+        <v>71.13037030166223</v>
       </c>
       <c r="R26">
-        <v>202.776068390562</v>
+        <v>640.17333271496</v>
       </c>
       <c r="S26">
-        <v>0.006022800075022972</v>
+        <v>0.01631787127303858</v>
       </c>
       <c r="T26">
-        <v>0.006022800075022972</v>
+        <v>0.01631787127303858</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>32.24961033333334</v>
+        <v>43.49559133333333</v>
       </c>
       <c r="H27">
-        <v>96.74883100000001</v>
+        <v>130.486774</v>
       </c>
       <c r="I27">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="J27">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N27">
         <v>137.749091</v>
       </c>
       <c r="O27">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P27">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q27">
-        <v>1480.784836173625</v>
+        <v>1997.159389558049</v>
       </c>
       <c r="R27">
-        <v>13327.06352556262</v>
+        <v>17974.43450602244</v>
       </c>
       <c r="S27">
-        <v>0.3958368452385398</v>
+        <v>0.4581642087948892</v>
       </c>
       <c r="T27">
-        <v>0.3958368452385398</v>
+        <v>0.4581642087948891</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>32.24961033333334</v>
+        <v>43.49559133333333</v>
       </c>
       <c r="H28">
-        <v>96.74883100000001</v>
+        <v>130.486774</v>
       </c>
       <c r="I28">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="J28">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N28">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O28">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P28">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q28">
-        <v>7.516298431818779</v>
+        <v>36.53474537724244</v>
       </c>
       <c r="R28">
-        <v>67.64668588636901</v>
+        <v>328.812708395182</v>
       </c>
       <c r="S28">
-        <v>0.002009223613344511</v>
+        <v>0.008381360444641913</v>
       </c>
       <c r="T28">
-        <v>0.002009223613344511</v>
+        <v>0.008381360444641911</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>32.24961033333334</v>
+        <v>43.49559133333333</v>
       </c>
       <c r="H29">
-        <v>96.74883100000001</v>
+        <v>130.486774</v>
       </c>
       <c r="I29">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="J29">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N29">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O29">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P29">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q29">
-        <v>638.1109890612722</v>
+        <v>330.1763241805428</v>
       </c>
       <c r="R29">
-        <v>5742.99890155145</v>
+        <v>2971.586917624886</v>
       </c>
       <c r="S29">
-        <v>0.1705770039317461</v>
+        <v>0.07574506828143492</v>
       </c>
       <c r="T29">
-        <v>0.1705770039317461</v>
+        <v>0.0757450682814349</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>32.24961033333334</v>
+        <v>43.49559133333333</v>
       </c>
       <c r="H30">
-        <v>96.74883100000001</v>
+        <v>130.486774</v>
       </c>
       <c r="I30">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="J30">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N30">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O30">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P30">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q30">
-        <v>81.9113227791389</v>
+        <v>207.9288040585727</v>
       </c>
       <c r="R30">
-        <v>737.2019050122501</v>
+        <v>1871.359236527154</v>
       </c>
       <c r="S30">
-        <v>0.02189617208803479</v>
+        <v>0.04770051729233529</v>
       </c>
       <c r="T30">
-        <v>0.02189617208803479</v>
+        <v>0.04770051729233529</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>32.24961033333334</v>
+        <v>43.49559133333333</v>
       </c>
       <c r="H31">
-        <v>96.74883100000001</v>
+        <v>130.486774</v>
       </c>
       <c r="I31">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="J31">
-        <v>0.6001194137310197</v>
+        <v>0.6080317382054886</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N31">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O31">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P31">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q31">
-        <v>14.130747260536</v>
+        <v>7.509383356926</v>
       </c>
       <c r="R31">
-        <v>127.176725344824</v>
+        <v>67.58445021233399</v>
       </c>
       <c r="S31">
-        <v>0.003777368784331517</v>
+        <v>0.00172271211914882</v>
       </c>
       <c r="T31">
-        <v>0.003777368784331517</v>
+        <v>0.00172271211914882</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>6.473970333333334</v>
+        <v>7.007517</v>
       </c>
       <c r="H32">
-        <v>19.421911</v>
+        <v>21.022551</v>
       </c>
       <c r="I32">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="J32">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N32">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O32">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P32">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q32">
-        <v>4.522935789858001</v>
+        <v>11.45971956756</v>
       </c>
       <c r="R32">
-        <v>40.70642210872201</v>
+        <v>103.13747610804</v>
       </c>
       <c r="S32">
-        <v>0.001209051167015026</v>
+        <v>0.002628950586585032</v>
       </c>
       <c r="T32">
-        <v>0.001209051167015026</v>
+        <v>0.002628950586585032</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>6.473970333333334</v>
+        <v>7.007517</v>
       </c>
       <c r="H33">
-        <v>19.421911</v>
+        <v>21.022551</v>
       </c>
       <c r="I33">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="J33">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2483,28 +2483,28 @@
         <v>1</v>
       </c>
       <c r="M33">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N33">
         <v>137.749091</v>
       </c>
       <c r="O33">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P33">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q33">
-        <v>297.2611761925446</v>
+        <v>321.759698972349</v>
       </c>
       <c r="R33">
-        <v>2675.350585732901</v>
+        <v>2895.837290751142</v>
       </c>
       <c r="S33">
-        <v>0.07946254129668702</v>
+        <v>0.07381422768383565</v>
       </c>
       <c r="T33">
-        <v>0.07946254129668702</v>
+        <v>0.07381422768383564</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>6.473970333333334</v>
+        <v>7.007517</v>
       </c>
       <c r="H34">
-        <v>19.421911</v>
+        <v>21.022551</v>
       </c>
       <c r="I34">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="J34">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N34">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O34">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P34">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q34">
-        <v>1.508864527698778</v>
+        <v>5.886064345226999</v>
       </c>
       <c r="R34">
-        <v>13.579780749289</v>
+        <v>52.97457910704299</v>
       </c>
       <c r="S34">
-        <v>0.0004033429840353885</v>
+        <v>0.001350309858965992</v>
       </c>
       <c r="T34">
-        <v>0.0004033429840353885</v>
+        <v>0.001350309858965992</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>6.473970333333334</v>
+        <v>7.007517</v>
       </c>
       <c r="H35">
-        <v>19.421911</v>
+        <v>21.022551</v>
       </c>
       <c r="I35">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="J35">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N35">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O35">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P35">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q35">
-        <v>128.0980318787521</v>
+        <v>53.194269436671</v>
       </c>
       <c r="R35">
-        <v>1152.882286908769</v>
+        <v>478.748424930039</v>
       </c>
       <c r="S35">
-        <v>0.03424259864193112</v>
+        <v>0.01220318743526411</v>
       </c>
       <c r="T35">
-        <v>0.03424259864193112</v>
+        <v>0.01220318743526411</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>6.473970333333334</v>
+        <v>7.007517</v>
       </c>
       <c r="H36">
-        <v>19.421911</v>
+        <v>21.022551</v>
       </c>
       <c r="I36">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="J36">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N36">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O36">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P36">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q36">
-        <v>16.44334514913889</v>
+        <v>33.499133695269</v>
       </c>
       <c r="R36">
-        <v>147.99010634225</v>
+        <v>301.492203257421</v>
       </c>
       <c r="S36">
-        <v>0.004395562211335616</v>
+        <v>0.007684967041215232</v>
       </c>
       <c r="T36">
-        <v>0.004395562211335616</v>
+        <v>0.00768496704121523</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,46 +2713,46 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>6.473970333333334</v>
+        <v>7.007517</v>
       </c>
       <c r="H37">
-        <v>19.421911</v>
+        <v>21.022551</v>
       </c>
       <c r="I37">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="J37">
-        <v>0.1204713868104106</v>
+        <v>0.09795918646930096</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M37">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N37">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O37">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P37">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q37">
-        <v>2.836686633016</v>
+        <v>1.209826787499</v>
       </c>
       <c r="R37">
-        <v>25.530179697144</v>
+        <v>10.888441087491</v>
       </c>
       <c r="S37">
-        <v>0.0007582905094064126</v>
+        <v>0.0002775438634349574</v>
       </c>
       <c r="T37">
-        <v>0.0007582905094064126</v>
+        <v>0.0002775438634349573</v>
       </c>
     </row>
   </sheetData>
